--- a/source/ife_address.xlsx
+++ b/source/ife_address.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,31 +43,35 @@
     <t>任务十三：零基础JavaScript编码（一）</t>
   </si>
   <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/tree/master/stage-01/task-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task10/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/tree/master/stage-01/task-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task11/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task13/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task13/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>任务十四：零基础JavaScript编码（二）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/tree/master/stage-01/task-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sunlifeng.com/ife/task10/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/tree/master/stage-01/task-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sunlifeng.com/ife/task11/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task13/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sunlifeng.com/ife/task13/</t>
+    <t>任务十五：零基础JavaScript编码（三）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -75,7 +79,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task15/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://sunlifeng.com/ife/task14/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task15/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -475,10 +487,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -489,10 +501,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -503,10 +515,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -514,13 +526,24 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -534,8 +557,10 @@
     <hyperlink ref="D4" r:id="rId6"/>
     <hyperlink ref="C5" r:id="rId7"/>
     <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/source/ife_address.xlsx
+++ b/source/ife_address.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,15 +79,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://sunlifeng.com/ife/task14/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务十六：零基础JavaScript编码（四）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task15/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://sunlifeng.com/ife/task14/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sunlifeng.com/ife/task15/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task16/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task16/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -532,18 +544,35 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -559,8 +588,10 @@
     <hyperlink ref="D5" r:id="rId8"/>
     <hyperlink ref="C6" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="D7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/source/ife_address.xlsx
+++ b/source/ife_address.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task13/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sunlifeng.com/ife/task13/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task14/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sunlifeng.com/ife/task14/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,19 +79,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task15/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sunlifeng.com/ife/task15/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>任务十七：零基础JavaScript编码（五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://sunlifeng.com/ife/task16/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task16/index.html</t>
+    <t>http://sunlifeng.com/ife/task17/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -538,13 +550,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -552,13 +564,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -566,13 +578,24 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -590,8 +613,10 @@
     <hyperlink ref="D6" r:id="rId10"/>
     <hyperlink ref="C7" r:id="rId11"/>
     <hyperlink ref="D7" r:id="rId12"/>
+    <hyperlink ref="C8" r:id="rId13"/>
+    <hyperlink ref="D8" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/source/ife_address.xlsx
+++ b/source/ife_address.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,15 +103,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://sunlifeng.com/ife/task16/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务十八：基础JavaScript练习（一）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://sunlifeng.com/ife/task16/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://sunlifeng.com/ife/task17/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task18/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,7 +596,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -592,10 +604,21 @@
         <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -615,8 +638,10 @@
     <hyperlink ref="D7" r:id="rId12"/>
     <hyperlink ref="C8" r:id="rId13"/>
     <hyperlink ref="D8" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="D9" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/source/ife_address.xlsx
+++ b/source/ife_address.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,11 +119,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务十九：基础JavaScript练习（二）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://sunlifeng.com/ife/task18/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击移除和排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sunlifeng.com/ife/task19/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/ulfeng/ife_2016_spring/blob/master/stage-02/task19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +188,14 @@
       <color theme="10"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -176,12 +220,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -487,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -499,9 +544,10 @@
     <col min="2" max="2" width="43.875" customWidth="1"/>
     <col min="3" max="3" width="82.375" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +560,14 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -528,8 +580,11 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -542,8 +597,11 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -556,8 +614,11 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -570,8 +631,11 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -584,8 +648,11 @@
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -598,8 +665,11 @@
       <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -609,16 +679,42 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -640,8 +736,10 @@
     <hyperlink ref="D8" r:id="rId14"/>
     <hyperlink ref="C9" r:id="rId15"/>
     <hyperlink ref="D9" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="D10" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>